--- a/nes-lter-minimal-info.xlsx
+++ b/nes-lter-minimal-info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbeaulieu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkoch\Desktop\LTER\minimal-edi-package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBD01EE-13D6-460E-B49F-D563FE56C013}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0170BAE3-6F39-460B-BEB1-9EB87D72346D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17436" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17436" windowHeight="9012" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnHeaders" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="100">
   <si>
     <t>attributeName</t>
   </si>
@@ -314,6 +314,21 @@
   </si>
   <si>
     <t>NOAA Large Marine Ecosystems</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>E.</t>
+  </si>
+  <si>
+    <t>Crockford</t>
+  </si>
+  <si>
+    <t>ecrockford@whoi.edu</t>
+  </si>
+  <si>
+    <t>0000-0002-2122-0462</t>
   </si>
 </sst>
 </file>
@@ -666,18 +681,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="62.77734375" style="1" customWidth="1"/>
-    <col min="3" max="8" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="20.41796875" customWidth="1"/>
+    <col min="2" max="2" width="62.7890625" style="1" customWidth="1"/>
+    <col min="3" max="8" width="20.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -700,7 +715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -717,7 +732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -737,7 +752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -757,7 +772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -777,7 +792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -797,7 +812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -817,7 +832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -837,7 +852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -857,7 +872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -874,7 +889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -894,7 +909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -925,9 +940,9 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -938,7 +953,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -949,7 +964,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -967,18 +982,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.47265625" customWidth="1"/>
+    <col min="5" max="5" width="26.3125" customWidth="1"/>
+    <col min="6" max="6" width="22.62890625" customWidth="1"/>
+    <col min="8" max="8" width="23.62890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -1010,7 +1029,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -1042,7 +1061,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -1074,7 +1093,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -1097,7 +1116,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -1126,7 +1145,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -1152,6 +1171,38 @@
         <v>62</v>
       </c>
       <c r="J6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1159,6 +1210,7 @@
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
     <hyperlink ref="E6" r:id="rId2" xr:uid="{CA295046-575D-408C-95E4-5B2B4E4C4C5B}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{BC47F448-61B3-4175-AB1F-20C91D3F8E04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1172,12 +1224,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1185,7 +1237,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -1193,7 +1245,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -1201,7 +1253,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>93</v>
       </c>
@@ -1209,7 +1261,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2"/>
     </row>
   </sheetData>
@@ -1225,9 +1277,9 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -1244,7 +1296,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>28</v>
       </c>
